--- a/aspen_insurance.xlsx
+++ b/aspen_insurance.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacharles\Desktop\work\models\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF3EB744-6C9D-4D78-A1B9-E15E88D13E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E4CF41-25A7-4BCD-9915-6E1E69652219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21435" yWindow="14400" windowWidth="21420" windowHeight="14430" xr2:uid="{0400FD6F-01BA-4F0D-95C0-87C0F0236D42}"/>
+    <workbookView xWindow="19815" yWindow="30" windowWidth="18510" windowHeight="20850" xr2:uid="{0400FD6F-01BA-4F0D-95C0-87C0F0236D42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
   <si>
     <t>Aspen Insurance</t>
   </si>
@@ -128,9 +129,6 @@
     <t>Insurance Segment</t>
   </si>
   <si>
-    <t>Underwriting Revenues</t>
-  </si>
-  <si>
     <t>Gross written premiums</t>
   </si>
   <si>
@@ -140,9 +138,6 @@
     <t>Net earned premiums</t>
   </si>
   <si>
-    <t>Underwriting Expenses</t>
-  </si>
-  <si>
     <t>Current accident year net losses and loss expenses</t>
   </si>
   <si>
@@ -200,15 +195,125 @@
     <t>General &amp; admin expense ratio</t>
   </si>
   <si>
-    <t>Combines ratio</t>
+    <t>q123</t>
+  </si>
+  <si>
+    <t>q223</t>
+  </si>
+  <si>
+    <t>q323</t>
+  </si>
+  <si>
+    <t>q423</t>
+  </si>
+  <si>
+    <t>q124</t>
+  </si>
+  <si>
+    <t>q324</t>
+  </si>
+  <si>
+    <t>q224</t>
+  </si>
+  <si>
+    <t>GWP</t>
+  </si>
+  <si>
+    <t>NWP</t>
+  </si>
+  <si>
+    <t>Net Earned premimum</t>
+  </si>
+  <si>
+    <t>Net investment income</t>
+  </si>
+  <si>
+    <t>net realized &amp; unrealuzed invsmt gains</t>
+  </si>
+  <si>
+    <t>int expense</t>
+  </si>
+  <si>
+    <t>corporate &amp; otyher exp</t>
+  </si>
+  <si>
+    <t>non op exp</t>
+  </si>
+  <si>
+    <t>net un&amp;realized FX gains</t>
+  </si>
+  <si>
+    <t>income tax</t>
+  </si>
+  <si>
+    <t>net income</t>
+  </si>
+  <si>
+    <t>loss ratio</t>
+  </si>
+  <si>
+    <t>expense ratio</t>
+  </si>
+  <si>
+    <t>combined ratio</t>
+  </si>
+  <si>
+    <t># in millions</t>
+  </si>
+  <si>
+    <t>current accident yyear net loss and loss exp</t>
+  </si>
+  <si>
+    <t>catastrophe loss</t>
+  </si>
+  <si>
+    <t>prior year reserve development, post LPT</t>
+  </si>
+  <si>
+    <t>adjusted losses</t>
+  </si>
+  <si>
+    <t>total net loss</t>
+  </si>
+  <si>
+    <t>acquisition cost</t>
+  </si>
+  <si>
+    <t>g&amp;a expense</t>
+  </si>
+  <si>
+    <t>adjusted combined ratio</t>
+  </si>
+  <si>
+    <t>gwp change</t>
+  </si>
+  <si>
+    <t>nwp change</t>
+  </si>
+  <si>
+    <t>nep change</t>
+  </si>
+  <si>
+    <t>uw income change</t>
+  </si>
+  <si>
+    <t>combined ratio change</t>
+  </si>
+  <si>
+    <t>adj uw income change</t>
+  </si>
+  <si>
+    <t>adj combined ratio change</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="165" formatCode="0.0_);\(0.0\)"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -300,7 +405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -309,10 +414,15 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,16 +758,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55EDB4E-C871-43D9-BE99-436BB2E0D529}">
-  <dimension ref="B2:K67"/>
+  <dimension ref="B2:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="N54" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A35" sqref="A35"/>
+      <selection pane="topRight" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomRight" activeCell="P70" sqref="P70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="93.75" x14ac:dyDescent="1.4">
@@ -921,7 +1036,7 @@
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>23</v>
       </c>
@@ -932,7 +1047,7 @@
         <v>367.6</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>24</v>
       </c>
@@ -943,7 +1058,7 @@
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>25</v>
       </c>
@@ -954,269 +1069,949 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>26</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C36" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C38" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D38" s="2">
+        <f>C38+1</f>
+        <v>2017</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" ref="E38:K38" si="1">D38+1</f>
+        <v>2018</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="1"/>
+        <v>2019</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="1"/>
+        <v>2020</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="1"/>
+        <v>2021</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+      <c r="L38" t="s">
+        <v>52</v>
+      </c>
+      <c r="M38" t="s">
+        <v>53</v>
+      </c>
+      <c r="N38" t="s">
+        <v>54</v>
+      </c>
+      <c r="O38" t="s">
+        <v>55</v>
+      </c>
+      <c r="P38" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C40" s="2">
-        <v>2016</v>
-      </c>
-      <c r="D40" s="2">
-        <f>C40+1</f>
-        <v>2017</v>
-      </c>
-      <c r="E40" s="2">
-        <f t="shared" ref="E40:K40" si="1">D40+1</f>
-        <v>2018</v>
-      </c>
-      <c r="F40" s="2">
-        <f t="shared" si="1"/>
-        <v>2019</v>
-      </c>
-      <c r="G40" s="2">
-        <f t="shared" si="1"/>
-        <v>2020</v>
-      </c>
-      <c r="H40" s="2">
-        <f t="shared" si="1"/>
-        <v>2021</v>
-      </c>
-      <c r="I40" s="2">
-        <f t="shared" si="1"/>
-        <v>2022</v>
-      </c>
-      <c r="J40" s="2">
-        <f t="shared" si="1"/>
-        <v>2023</v>
-      </c>
-      <c r="K40" s="2">
-        <f t="shared" si="1"/>
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="7" t="s">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+      <c r="I40">
+        <v>2531.6999999999998</v>
+      </c>
+      <c r="J40">
+        <v>2446.6</v>
+      </c>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12">
+        <v>671.4</v>
+      </c>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12">
+        <v>684.2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>31</v>
       </c>
-      <c r="I42">
-        <v>2531.6999999999998</v>
-      </c>
-      <c r="J42">
-        <v>2446.6</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="8" t="s">
+      <c r="I41">
+        <v>1469.9</v>
+      </c>
+      <c r="J41">
+        <v>1483.9</v>
+      </c>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12">
+        <v>416.9</v>
+      </c>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12">
+        <v>425.3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="I42" s="7">
+        <v>1436.9</v>
+      </c>
+      <c r="J42" s="7">
+        <v>1460</v>
+      </c>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13">
+        <v>368.8</v>
+      </c>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13">
+        <v>378.3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
       <c r="I43">
-        <v>1469.9</v>
+        <v>761.1</v>
       </c>
       <c r="J43">
-        <v>1483.9</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+        <v>833.5</v>
+      </c>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12">
+        <v>-219.4</v>
+      </c>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12">
+        <v>229.6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I44">
-        <v>1436.9</v>
+        <v>61.7</v>
       </c>
       <c r="J44">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="8" t="s">
+        <v>33.1</v>
+      </c>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12">
+        <v>-6.6</v>
+      </c>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>35</v>
       </c>
-      <c r="I46">
-        <v>761.1</v>
-      </c>
-      <c r="J46">
-        <v>833.5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="8" t="s">
+      <c r="I45" s="10">
+        <v>37.6</v>
+      </c>
+      <c r="J45" s="10">
+        <v>26.6</v>
+      </c>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12">
+        <v>-2.6</v>
+      </c>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>36</v>
       </c>
-      <c r="I47">
-        <v>61.7</v>
-      </c>
-      <c r="J47">
-        <v>33.1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="8" t="s">
+      <c r="I46" s="8">
+        <f>SUM(I43:I45)</f>
+        <v>860.40000000000009</v>
+      </c>
+      <c r="J46" s="8">
+        <f>SUM(J43:J45)</f>
+        <v>893.2</v>
+      </c>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12">
+        <f>SUM(M43:M45)</f>
+        <v>-228.6</v>
+      </c>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12">
+        <f>(SUM(Q43:Q45))*-1</f>
+        <v>-231.1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>37</v>
       </c>
-      <c r="I48" s="11">
-        <v>37.6</v>
-      </c>
-      <c r="J48" s="11">
-        <v>26.6</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="8" t="s">
+      <c r="I47" s="10">
+        <v>49.3</v>
+      </c>
+      <c r="J47" s="10">
+        <v>48.7</v>
+      </c>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12">
+        <v>-5.2</v>
+      </c>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B48" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I49" s="9">
-        <f>SUM(I46:I48)</f>
-        <v>860.40000000000009</v>
-      </c>
-      <c r="J49" s="9">
-        <f>SUM(J46:J48)</f>
-        <v>893.2</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="8" t="s">
+      <c r="I48" s="8">
+        <f>SUM(I46:I47)</f>
+        <v>909.7</v>
+      </c>
+      <c r="J48" s="8">
+        <f>SUM(J47,J46)</f>
+        <v>941.90000000000009</v>
+      </c>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13">
+        <f>SUM(M46:M47)</f>
+        <v>-233.79999999999998</v>
+      </c>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13">
+        <f>SUM(Q46:Q47)</f>
+        <v>-231.2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>39</v>
       </c>
-      <c r="I50" s="11">
-        <v>49.3</v>
-      </c>
-      <c r="J50" s="11">
-        <v>48.7</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <v>179.4</v>
+      </c>
+      <c r="J49">
+        <v>171.6</v>
+      </c>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12">
+        <v>-48.5</v>
+      </c>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12">
+        <v>-48.2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>40</v>
+      </c>
+      <c r="I50" s="9">
+        <v>244</v>
+      </c>
+      <c r="J50" s="9">
+        <v>233.9</v>
+      </c>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12">
+        <v>-54.2</v>
+      </c>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12">
+        <v>-63.4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I51" s="9">
-        <f>SUM(I49:I50)</f>
-        <v>909.7</v>
-      </c>
-      <c r="J51" s="9">
-        <f>SUM(J50,J49)</f>
-        <v>941.90000000000009</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="8" t="s">
         <v>41</v>
       </c>
+      <c r="I51" s="8">
+        <f>I42-I48-I49-I50</f>
+        <v>103.80000000000007</v>
+      </c>
+      <c r="J51" s="8">
+        <f>J42-J48-J49-J50</f>
+        <v>112.59999999999988</v>
+      </c>
+      <c r="M51" s="12">
+        <f>M42+(SUM(M48:M50))</f>
+        <v>32.300000000000068</v>
+      </c>
+      <c r="Q51" s="12">
+        <f>Q42+(SUM(Q48:Q50))</f>
+        <v>35.500000000000057</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>42</v>
+      </c>
       <c r="I52">
-        <v>179.4</v>
+        <v>153.1</v>
       </c>
       <c r="J52">
-        <v>171.6</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I53" s="10">
-        <v>244</v>
-      </c>
-      <c r="J53" s="10">
-        <v>233.9</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+        <v>161.30000000000001</v>
+      </c>
+      <c r="M52" s="12">
+        <v>37.5</v>
+      </c>
+      <c r="Q52" s="12">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I54" s="9">
-        <f>I44-I51-I52-I53</f>
-        <v>103.80000000000007</v>
-      </c>
-      <c r="J54" s="9">
-        <f>J44-J51-J52-J53</f>
-        <v>112.59999999999988</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="8" t="s">
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>44</v>
       </c>
-      <c r="I55">
-        <v>153.1</v>
-      </c>
-      <c r="J55">
-        <v>161.30000000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="7" t="s">
+      <c r="M55" s="14">
+        <f>ABS(M43/M42)</f>
+        <v>0.59490238611713664</v>
+      </c>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="14">
+        <f>ABS(Q43/Q42)</f>
+        <v>0.60692572032778214</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>34</v>
+      </c>
+      <c r="M56" s="14">
+        <f>ABS(M44/M42)</f>
+        <v>1.7895878524945768E-2</v>
+      </c>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="14">
+        <f>Q44/Q42</f>
+        <v>1.3217023526301877E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M57" s="15">
+        <f>SUM(M55:M56)</f>
+        <v>0.61279826464208242</v>
+      </c>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15">
+        <f>SUM(Q55:Q56)</f>
+        <v>0.62014274385408397</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M58" s="15">
+        <f>ABS(M45/M42)</f>
+        <v>7.0498915401301515E-3</v>
+      </c>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="15">
+        <f>Q45/Q42</f>
+        <v>-9.2519164684113139E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="M59" s="15">
+        <f>SUM(M57:M58)</f>
+        <v>0.61984815618221256</v>
+      </c>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15">
+        <f>SUM(Q57:Q58)</f>
+        <v>0.61089082738567269</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M60" s="15">
+        <f>ABS(M47/M42)</f>
+        <v>1.4099783080260303E-2</v>
+      </c>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="15">
+        <f>ABS(Q47/Q42)</f>
+        <v>2.6434047052603752E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M61" s="16">
+        <f>SUM(M59:M60)</f>
+        <v>0.63394793926247284</v>
+      </c>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16">
+        <f>SUM(Q59:Q60)</f>
+        <v>0.61115516785619872</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="M62" s="15">
+        <f>ABS(M49/M$42)</f>
+        <v>0.13150759219088937</v>
+      </c>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15">
+        <f>ABS(Q49/Q$42)</f>
+        <v>0.12741210679355008</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="M63" s="15">
+        <f>ABS(M50/M$42)</f>
+        <v>0.14696312364425163</v>
+      </c>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15">
+        <f>ABS(Q50/Q$42)</f>
+        <v>0.16759185831350779</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="M64" s="15">
+        <f>SUM(M61:M63)</f>
+        <v>0.91241865509761388</v>
+      </c>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15">
+        <f>SUM(Q61:Q63)</f>
+        <v>0.90615913296325656</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="7" t="s">
-        <v>54</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="M65" s="15">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="15">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q67" s="11">
+        <f>Q40/M40-1</f>
+        <v>1.906464104855532E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q68" s="11">
+        <f t="shared" ref="Q68:Q69" si="2">Q41/M41-1</f>
+        <v>2.0148716718637605E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q69" s="11">
+        <f t="shared" si="2"/>
+        <v>2.575921908893708E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q70" s="11">
+        <f>Q51/M51-1</f>
+        <v>9.9071207430339925E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q71" s="11">
+        <f>Q52/M52-1</f>
+        <v>-5.0666666666666638E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q72" s="11">
+        <f>Q64/M64-1</f>
+        <v>-6.8603618518602305E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q73" s="11">
+        <f>Q65/M65-1</f>
+        <v>8.9086859688196629E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66C9BE4-A560-4F18-9C90-672F3AB3809E}">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12">
+        <v>69.7</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12">
+        <v>82.5</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12">
+        <v>9.9</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12">
+        <v>-26.1</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12">
+        <v>-23.5</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12">
+        <v>-14</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12">
+        <v>-29.4</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12">
+        <v>-39</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="D21" s="12">
+        <v>-1</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12">
+        <v>-5.5</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12">
+        <v>1.9</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12">
+        <v>-19.3</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12">
+        <v>-11.1</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12">
+        <f>SUM(C17:C23)</f>
+        <v>3.6000000000000085</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
